--- a/data_and_analysis/processed/mcmc_diagnostics.xlsx
+++ b/data_and_analysis/processed/mcmc_diagnostics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.269</v>
+        <v>0.27</v>
       </c>
       <c r="C2" t="n">
         <v>0.01</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>0.251</v>
       </c>
       <c r="E2" t="n">
         <v>0.288</v>
@@ -515,16 +515,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9286</v>
+        <v>8083</v>
       </c>
       <c r="I2" t="n">
-        <v>9286</v>
+        <v>8083</v>
       </c>
       <c r="J2" t="n">
-        <v>9272</v>
+        <v>8076</v>
       </c>
       <c r="K2" t="n">
-        <v>20457</v>
+        <v>17808</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -540,13 +540,13 @@
         <v>0.99</v>
       </c>
       <c r="C3" t="n">
-        <v>0.193</v>
+        <v>0.192</v>
       </c>
       <c r="D3" t="n">
-        <v>0.643</v>
+        <v>0.645</v>
       </c>
       <c r="E3" t="n">
-        <v>1.354</v>
+        <v>1.351</v>
       </c>
       <c r="F3" t="n">
         <v>0.002</v>
@@ -555,16 +555,16 @@
         <v>0.001</v>
       </c>
       <c r="H3" t="n">
-        <v>9552</v>
+        <v>8256</v>
       </c>
       <c r="I3" t="n">
-        <v>9552</v>
+        <v>8256</v>
       </c>
       <c r="J3" t="n">
-        <v>9453</v>
+        <v>8165</v>
       </c>
       <c r="K3" t="n">
-        <v>20452</v>
+        <v>19338</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -583,10 +583,10 @@
         <v>0.092</v>
       </c>
       <c r="D4" t="n">
-        <v>1.099</v>
+        <v>1.093</v>
       </c>
       <c r="E4" t="n">
-        <v>1.444</v>
+        <v>1.441</v>
       </c>
       <c r="F4" t="n">
         <v>0.001</v>
@@ -595,16 +595,16 @@
         <v>0.001</v>
       </c>
       <c r="H4" t="n">
-        <v>9710</v>
+        <v>8206</v>
       </c>
       <c r="I4" t="n">
-        <v>9710</v>
+        <v>8206</v>
       </c>
       <c r="J4" t="n">
-        <v>9686</v>
+        <v>8191</v>
       </c>
       <c r="K4" t="n">
-        <v>18634</v>
+        <v>16411</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.047</v>
       </c>
       <c r="D5" t="n">
-        <v>1.025</v>
+        <v>1.027</v>
       </c>
       <c r="E5" t="n">
-        <v>1.2</v>
+        <v>1.203</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>9405</v>
+        <v>8180</v>
       </c>
       <c r="I5" t="n">
-        <v>9405</v>
+        <v>8180</v>
       </c>
       <c r="J5" t="n">
-        <v>9393</v>
+        <v>8184</v>
       </c>
       <c r="K5" t="n">
-        <v>21433</v>
+        <v>18815</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="C6" t="n">
         <v>0.037</v>
       </c>
       <c r="D6" t="n">
-        <v>0.924</v>
+        <v>0.927</v>
       </c>
       <c r="E6" t="n">
-        <v>1.064</v>
+        <v>1.066</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -675,16 +675,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>9424</v>
+        <v>8221</v>
       </c>
       <c r="I6" t="n">
-        <v>9424</v>
+        <v>8221</v>
       </c>
       <c r="J6" t="n">
-        <v>9409</v>
+        <v>8223</v>
       </c>
       <c r="K6" t="n">
-        <v>20649</v>
+        <v>18209</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -697,16 +697,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.929</v>
+        <v>0.931</v>
       </c>
       <c r="C7" t="n">
         <v>0.034</v>
       </c>
       <c r="D7" t="n">
-        <v>0.865</v>
+        <v>0.867</v>
       </c>
       <c r="E7" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>9437</v>
+        <v>8064</v>
       </c>
       <c r="I7" t="n">
-        <v>9437</v>
+        <v>8063</v>
       </c>
       <c r="J7" t="n">
-        <v>9424</v>
+        <v>8074</v>
       </c>
       <c r="K7" t="n">
-        <v>20759</v>
+        <v>18027</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="D8" t="n">
-        <v>0.875</v>
+        <v>0.877</v>
       </c>
       <c r="E8" t="n">
-        <v>1.005</v>
+        <v>1.007</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -755,16 +755,16 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>9415</v>
+        <v>8060</v>
       </c>
       <c r="I8" t="n">
-        <v>9415</v>
+        <v>8057</v>
       </c>
       <c r="J8" t="n">
-        <v>9401</v>
+        <v>8071</v>
       </c>
       <c r="K8" t="n">
-        <v>20617</v>
+        <v>17671</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -777,13 +777,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.897</v>
+        <v>0.899</v>
       </c>
       <c r="C9" t="n">
         <v>0.033</v>
       </c>
       <c r="D9" t="n">
-        <v>0.836</v>
+        <v>0.838</v>
       </c>
       <c r="E9" t="n">
         <v>0.961</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>9458</v>
+        <v>8065</v>
       </c>
       <c r="I9" t="n">
-        <v>9458</v>
+        <v>8063</v>
       </c>
       <c r="J9" t="n">
-        <v>9441</v>
+        <v>8075</v>
       </c>
       <c r="K9" t="n">
-        <v>20587</v>
+        <v>17930</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -817,16 +817,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.031</v>
+        <v>1.025</v>
       </c>
       <c r="C10" t="n">
         <v>0.174</v>
       </c>
       <c r="D10" t="n">
-        <v>0.711</v>
+        <v>0.705</v>
       </c>
       <c r="E10" t="n">
-        <v>1.361</v>
+        <v>1.354</v>
       </c>
       <c r="F10" t="n">
         <v>0.002</v>
@@ -835,16 +835,16 @@
         <v>0.001</v>
       </c>
       <c r="H10" t="n">
-        <v>9745</v>
+        <v>8518</v>
       </c>
       <c r="I10" t="n">
-        <v>9745</v>
+        <v>8518</v>
       </c>
       <c r="J10" t="n">
-        <v>9589</v>
+        <v>8428</v>
       </c>
       <c r="K10" t="n">
-        <v>17320</v>
+        <v>16646</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.285</v>
+        <v>1.284</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>1.152</v>
+        <v>1.153</v>
       </c>
       <c r="E11" t="n">
         <v>1.417</v>
@@ -875,16 +875,16 @@
         <v>0.001</v>
       </c>
       <c r="H11" t="n">
-        <v>9130</v>
+        <v>8245</v>
       </c>
       <c r="I11" t="n">
-        <v>9130</v>
+        <v>8245</v>
       </c>
       <c r="J11" t="n">
-        <v>9115</v>
+        <v>8227</v>
       </c>
       <c r="K11" t="n">
-        <v>20715</v>
+        <v>16338</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -903,7 +903,7 @@
         <v>0.043</v>
       </c>
       <c r="D12" t="n">
-        <v>1.007</v>
+        <v>1.009</v>
       </c>
       <c r="E12" t="n">
         <v>1.171</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>9309</v>
+        <v>8285</v>
       </c>
       <c r="I12" t="n">
-        <v>9309</v>
+        <v>8285</v>
       </c>
       <c r="J12" t="n">
-        <v>9283</v>
+        <v>8289</v>
       </c>
       <c r="K12" t="n">
-        <v>21288</v>
+        <v>18475</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.949</v>
+        <v>0.95</v>
       </c>
       <c r="C13" t="n">
         <v>0.035</v>
       </c>
       <c r="D13" t="n">
-        <v>0.882</v>
+        <v>0.885</v>
       </c>
       <c r="E13" t="n">
-        <v>1.015</v>
+        <v>1.016</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>9575</v>
+        <v>7998</v>
       </c>
       <c r="I13" t="n">
-        <v>9575</v>
+        <v>7998</v>
       </c>
       <c r="J13" t="n">
-        <v>9573</v>
+        <v>8002</v>
       </c>
       <c r="K13" t="n">
-        <v>21018</v>
+        <v>18045</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -977,16 +977,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="D14" t="n">
-        <v>0.873</v>
+        <v>0.875</v>
       </c>
       <c r="E14" t="n">
-        <v>1.003</v>
+        <v>1.004</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -995,16 +995,16 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>9575</v>
+        <v>8125</v>
       </c>
       <c r="I14" t="n">
-        <v>9575</v>
+        <v>8124</v>
       </c>
       <c r="J14" t="n">
-        <v>9557</v>
+        <v>8132</v>
       </c>
       <c r="K14" t="n">
-        <v>20617</v>
+        <v>18040</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -1017,16 +1017,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.953</v>
+        <v>0.954</v>
       </c>
       <c r="C15" t="n">
         <v>0.035</v>
       </c>
       <c r="D15" t="n">
-        <v>0.886</v>
+        <v>0.889</v>
       </c>
       <c r="E15" t="n">
-        <v>1.019</v>
+        <v>1.02</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1035,16 +1035,16 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>9426</v>
+        <v>8138</v>
       </c>
       <c r="I15" t="n">
-        <v>9426</v>
+        <v>8137</v>
       </c>
       <c r="J15" t="n">
-        <v>9412</v>
+        <v>8146</v>
       </c>
       <c r="K15" t="n">
-        <v>20611</v>
+        <v>17890</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.893</v>
+        <v>0.894</v>
       </c>
       <c r="C16" t="n">
         <v>0.033</v>
       </c>
       <c r="D16" t="n">
-        <v>0.831</v>
+        <v>0.833</v>
       </c>
       <c r="E16" t="n">
-        <v>0.955</v>
+        <v>0.956</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1075,16 +1075,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>9449</v>
+        <v>8013</v>
       </c>
       <c r="I16" t="n">
-        <v>9449</v>
+        <v>8011</v>
       </c>
       <c r="J16" t="n">
-        <v>9433</v>
+        <v>8023</v>
       </c>
       <c r="K16" t="n">
-        <v>20620</v>
+        <v>17724</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
@@ -1097,16 +1097,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.24</v>
+        <v>1.236</v>
       </c>
       <c r="C17" t="n">
         <v>0.153</v>
       </c>
       <c r="D17" t="n">
-        <v>0.955</v>
+        <v>0.953</v>
       </c>
       <c r="E17" t="n">
-        <v>1.53</v>
+        <v>1.525</v>
       </c>
       <c r="F17" t="n">
         <v>0.002</v>
@@ -1115,16 +1115,16 @@
         <v>0.001</v>
       </c>
       <c r="H17" t="n">
-        <v>10298</v>
+        <v>7308</v>
       </c>
       <c r="I17" t="n">
-        <v>10298</v>
+        <v>7308</v>
       </c>
       <c r="J17" t="n">
-        <v>10257</v>
+        <v>7271</v>
       </c>
       <c r="K17" t="n">
-        <v>17284</v>
+        <v>12298</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
@@ -1137,16 +1137,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.184</v>
+        <v>1.183</v>
       </c>
       <c r="C18" t="n">
         <v>0.06</v>
       </c>
       <c r="D18" t="n">
-        <v>1.073</v>
+        <v>1.069</v>
       </c>
       <c r="E18" t="n">
-        <v>1.298</v>
+        <v>1.295</v>
       </c>
       <c r="F18" t="n">
         <v>0.001</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>9970</v>
+        <v>8781</v>
       </c>
       <c r="I18" t="n">
-        <v>9970</v>
+        <v>8781</v>
       </c>
       <c r="J18" t="n">
-        <v>9963</v>
+        <v>8758</v>
       </c>
       <c r="K18" t="n">
-        <v>21496</v>
+        <v>18839</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -1180,13 +1180,13 @@
         <v>1.018</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04</v>
+        <v>0.039</v>
       </c>
       <c r="D19" t="n">
-        <v>0.944</v>
+        <v>0.946</v>
       </c>
       <c r="E19" t="n">
-        <v>1.093</v>
+        <v>1.094</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1195,16 +1195,16 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>9317</v>
+        <v>8271</v>
       </c>
       <c r="I19" t="n">
-        <v>9317</v>
+        <v>8271</v>
       </c>
       <c r="J19" t="n">
-        <v>9303</v>
+        <v>8277</v>
       </c>
       <c r="K19" t="n">
-        <v>20295</v>
+        <v>17536</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
@@ -1217,16 +1217,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="C20" t="n">
         <v>0.034</v>
       </c>
       <c r="D20" t="n">
-        <v>0.869</v>
+        <v>0.87</v>
       </c>
       <c r="E20" t="n">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1235,16 +1235,16 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>9462</v>
+        <v>8129</v>
       </c>
       <c r="I20" t="n">
-        <v>9462</v>
+        <v>8127</v>
       </c>
       <c r="J20" t="n">
-        <v>9452</v>
+        <v>8139</v>
       </c>
       <c r="K20" t="n">
-        <v>21198</v>
+        <v>18144</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -1257,16 +1257,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.958</v>
+        <v>0.96</v>
       </c>
       <c r="C21" t="n">
         <v>0.035</v>
       </c>
       <c r="D21" t="n">
-        <v>0.892</v>
+        <v>0.894</v>
       </c>
       <c r="E21" t="n">
-        <v>1.025</v>
+        <v>1.026</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1275,16 +1275,16 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>9494</v>
+        <v>8079</v>
       </c>
       <c r="I21" t="n">
-        <v>9494</v>
+        <v>8077</v>
       </c>
       <c r="J21" t="n">
-        <v>9476</v>
+        <v>8088</v>
       </c>
       <c r="K21" t="n">
-        <v>20712</v>
+        <v>17718</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -1297,16 +1297,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.894</v>
+        <v>0.895</v>
       </c>
       <c r="C22" t="n">
         <v>0.033</v>
       </c>
       <c r="D22" t="n">
-        <v>0.832</v>
+        <v>0.834</v>
       </c>
       <c r="E22" t="n">
-        <v>0.956</v>
+        <v>0.957</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1315,16 +1315,16 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>9513</v>
+        <v>8098</v>
       </c>
       <c r="I22" t="n">
-        <v>9513</v>
+        <v>8097</v>
       </c>
       <c r="J22" t="n">
-        <v>9499</v>
+        <v>8107</v>
       </c>
       <c r="K22" t="n">
-        <v>20705</v>
+        <v>17888</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
@@ -1337,16 +1337,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.897</v>
+        <v>0.898</v>
       </c>
       <c r="C23" t="n">
         <v>0.033</v>
       </c>
       <c r="D23" t="n">
-        <v>0.835</v>
+        <v>0.836</v>
       </c>
       <c r="E23" t="n">
-        <v>0.959</v>
+        <v>0.96</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1355,16 +1355,16 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>9467</v>
+        <v>8065</v>
       </c>
       <c r="I23" t="n">
-        <v>9467</v>
+        <v>8062</v>
       </c>
       <c r="J23" t="n">
-        <v>9456</v>
+        <v>8076</v>
       </c>
       <c r="K23" t="n">
-        <v>20683</v>
+        <v>17898</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -1377,16 +1377,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.26</v>
+        <v>1.254</v>
       </c>
       <c r="C24" t="n">
-        <v>0.117</v>
+        <v>0.119</v>
       </c>
       <c r="D24" t="n">
-        <v>1.041</v>
+        <v>1.029</v>
       </c>
       <c r="E24" t="n">
-        <v>1.482</v>
+        <v>1.478</v>
       </c>
       <c r="F24" t="n">
         <v>0.001</v>
@@ -1395,16 +1395,16 @@
         <v>0.001</v>
       </c>
       <c r="H24" t="n">
-        <v>10160</v>
+        <v>8858</v>
       </c>
       <c r="I24" t="n">
-        <v>10160</v>
+        <v>8858</v>
       </c>
       <c r="J24" t="n">
-        <v>10135</v>
+        <v>8845</v>
       </c>
       <c r="K24" t="n">
-        <v>16878</v>
+        <v>14763</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.182</v>
+        <v>1.181</v>
       </c>
       <c r="C25" t="n">
-        <v>0.054</v>
+        <v>0.053</v>
       </c>
       <c r="D25" t="n">
-        <v>1.083</v>
+        <v>1.082</v>
       </c>
       <c r="E25" t="n">
-        <v>1.285</v>
+        <v>1.282</v>
       </c>
       <c r="F25" t="n">
         <v>0.001</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>10149</v>
+        <v>8078</v>
       </c>
       <c r="I25" t="n">
-        <v>10149</v>
+        <v>8078</v>
       </c>
       <c r="J25" t="n">
-        <v>10129</v>
+        <v>8076</v>
       </c>
       <c r="K25" t="n">
-        <v>20946</v>
+        <v>18002</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
@@ -1457,13 +1457,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.024</v>
+        <v>1.025</v>
       </c>
       <c r="C26" t="n">
-        <v>0.039</v>
+        <v>0.038</v>
       </c>
       <c r="D26" t="n">
-        <v>0.952</v>
+        <v>0.954</v>
       </c>
       <c r="E26" t="n">
         <v>1.098</v>
@@ -1475,16 +1475,16 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>9616</v>
+        <v>8039</v>
       </c>
       <c r="I26" t="n">
-        <v>9616</v>
+        <v>8038</v>
       </c>
       <c r="J26" t="n">
-        <v>9595</v>
+        <v>8048</v>
       </c>
       <c r="K26" t="n">
-        <v>20477</v>
+        <v>18068</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
@@ -1497,16 +1497,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.952</v>
+        <v>0.954</v>
       </c>
       <c r="C27" t="n">
         <v>0.035</v>
       </c>
       <c r="D27" t="n">
-        <v>0.887</v>
+        <v>0.889</v>
       </c>
       <c r="E27" t="n">
-        <v>1.019</v>
+        <v>1.02</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1515,16 +1515,16 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>9506</v>
+        <v>8102</v>
       </c>
       <c r="I27" t="n">
-        <v>9506</v>
+        <v>8101</v>
       </c>
       <c r="J27" t="n">
-        <v>9491</v>
+        <v>8110</v>
       </c>
       <c r="K27" t="n">
-        <v>20670</v>
+        <v>18121</v>
       </c>
       <c r="L27" t="n">
         <v>1</v>
@@ -1537,13 +1537,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.925</v>
+        <v>0.926</v>
       </c>
       <c r="C28" t="n">
         <v>0.034</v>
       </c>
       <c r="D28" t="n">
-        <v>0.861</v>
+        <v>0.863</v>
       </c>
       <c r="E28" t="n">
         <v>0.99</v>
@@ -1555,16 +1555,16 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>9579</v>
+        <v>8091</v>
       </c>
       <c r="I28" t="n">
-        <v>9579</v>
+        <v>8089</v>
       </c>
       <c r="J28" t="n">
-        <v>9559</v>
+        <v>8100</v>
       </c>
       <c r="K28" t="n">
-        <v>20843</v>
+        <v>17730</v>
       </c>
       <c r="L28" t="n">
         <v>1</v>
@@ -1577,16 +1577,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9</v>
+        <v>0.901</v>
       </c>
       <c r="C29" t="n">
         <v>0.033</v>
       </c>
       <c r="D29" t="n">
-        <v>0.838</v>
+        <v>0.841</v>
       </c>
       <c r="E29" t="n">
-        <v>0.962</v>
+        <v>0.964</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1595,16 +1595,16 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>9575</v>
+        <v>8066</v>
       </c>
       <c r="I29" t="n">
-        <v>9575</v>
+        <v>8063</v>
       </c>
       <c r="J29" t="n">
-        <v>9558</v>
+        <v>8079</v>
       </c>
       <c r="K29" t="n">
-        <v>20723</v>
+        <v>18028</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
@@ -1617,13 +1617,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.929</v>
+        <v>0.93</v>
       </c>
       <c r="C30" t="n">
         <v>0.034</v>
       </c>
       <c r="D30" t="n">
-        <v>0.865</v>
+        <v>0.866</v>
       </c>
       <c r="E30" t="n">
         <v>0.994</v>
@@ -1635,16 +1635,16 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>9498</v>
+        <v>8109</v>
       </c>
       <c r="I30" t="n">
-        <v>9498</v>
+        <v>8107</v>
       </c>
       <c r="J30" t="n">
-        <v>9482</v>
+        <v>8119</v>
       </c>
       <c r="K30" t="n">
-        <v>20619</v>
+        <v>17845</v>
       </c>
       <c r="L30" t="n">
         <v>1</v>
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.266</v>
+        <v>0.267</v>
       </c>
       <c r="C31" t="n">
         <v>0.053</v>
       </c>
       <c r="D31" t="n">
-        <v>0.172</v>
+        <v>0.173</v>
       </c>
       <c r="E31" t="n">
-        <v>0.365</v>
+        <v>0.367</v>
       </c>
       <c r="F31" t="n">
         <v>0.001</v>
@@ -1675,16 +1675,16 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>9546</v>
+        <v>8226</v>
       </c>
       <c r="I31" t="n">
-        <v>9546</v>
+        <v>8226</v>
       </c>
       <c r="J31" t="n">
-        <v>9434</v>
+        <v>7940</v>
       </c>
       <c r="K31" t="n">
-        <v>20497</v>
+        <v>19127</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
@@ -1697,16 +1697,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="C32" t="n">
         <v>0.022</v>
       </c>
       <c r="D32" t="n">
-        <v>0.299</v>
+        <v>0.3</v>
       </c>
       <c r="E32" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1715,16 +1715,16 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>9758</v>
+        <v>7637</v>
       </c>
       <c r="I32" t="n">
-        <v>9758</v>
+        <v>7637</v>
       </c>
       <c r="J32" t="n">
-        <v>9771</v>
+        <v>7636</v>
       </c>
       <c r="K32" t="n">
-        <v>17654</v>
+        <v>15729</v>
       </c>
       <c r="L32" t="n">
         <v>1</v>
@@ -1737,16 +1737,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.299</v>
+        <v>0.3</v>
       </c>
       <c r="C33" t="n">
         <v>0.006</v>
       </c>
       <c r="D33" t="n">
-        <v>0.287</v>
+        <v>0.288</v>
       </c>
       <c r="E33" t="n">
-        <v>0.311</v>
+        <v>0.312</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1755,16 +1755,16 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>10069</v>
+        <v>9153</v>
       </c>
       <c r="I33" t="n">
-        <v>10069</v>
+        <v>9153</v>
       </c>
       <c r="J33" t="n">
-        <v>10072</v>
+        <v>9155</v>
       </c>
       <c r="K33" t="n">
-        <v>21684</v>
+        <v>20051</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
@@ -1777,16 +1777,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.267</v>
+        <v>0.268</v>
       </c>
       <c r="C34" t="n">
         <v>0.002</v>
       </c>
       <c r="D34" t="n">
-        <v>0.263</v>
+        <v>0.264</v>
       </c>
       <c r="E34" t="n">
-        <v>0.271</v>
+        <v>0.273</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1795,16 +1795,16 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>10586</v>
+        <v>9024</v>
       </c>
       <c r="I34" t="n">
-        <v>10583</v>
+        <v>9024</v>
       </c>
       <c r="J34" t="n">
-        <v>10589</v>
+        <v>9021</v>
       </c>
       <c r="K34" t="n">
-        <v>21549</v>
+        <v>20416</v>
       </c>
       <c r="L34" t="n">
         <v>1</v>
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.25</v>
+        <v>0.251</v>
       </c>
       <c r="C35" t="n">
         <v>0.002</v>
       </c>
       <c r="D35" t="n">
-        <v>0.246</v>
+        <v>0.248</v>
       </c>
       <c r="E35" t="n">
-        <v>0.253</v>
+        <v>0.254</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1835,16 +1835,16 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>10683</v>
+        <v>8526</v>
       </c>
       <c r="I35" t="n">
-        <v>10683</v>
+        <v>8526</v>
       </c>
       <c r="J35" t="n">
-        <v>10684</v>
+        <v>8524</v>
       </c>
       <c r="K35" t="n">
-        <v>23096</v>
+        <v>19408</v>
       </c>
       <c r="L35" t="n">
         <v>1</v>
@@ -1857,16 +1857,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.252</v>
+        <v>0.254</v>
       </c>
       <c r="C36" t="n">
         <v>0.002</v>
       </c>
       <c r="D36" t="n">
-        <v>0.249</v>
+        <v>0.251</v>
       </c>
       <c r="E36" t="n">
-        <v>0.255</v>
+        <v>0.257</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1875,16 +1875,16 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>10534</v>
+        <v>8588</v>
       </c>
       <c r="I36" t="n">
-        <v>10533</v>
+        <v>8588</v>
       </c>
       <c r="J36" t="n">
-        <v>10534</v>
+        <v>8588</v>
       </c>
       <c r="K36" t="n">
-        <v>22445</v>
+        <v>19068</v>
       </c>
       <c r="L36" t="n">
         <v>1</v>
@@ -1897,16 +1897,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.241</v>
+        <v>0.242</v>
       </c>
       <c r="C37" t="n">
         <v>0.002</v>
       </c>
       <c r="D37" t="n">
-        <v>0.238</v>
+        <v>0.239</v>
       </c>
       <c r="E37" t="n">
-        <v>0.244</v>
+        <v>0.245</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1915,16 +1915,16 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>10236</v>
+        <v>8884</v>
       </c>
       <c r="I37" t="n">
-        <v>10236</v>
+        <v>8884</v>
       </c>
       <c r="J37" t="n">
-        <v>10236</v>
+        <v>8884</v>
       </c>
       <c r="K37" t="n">
-        <v>22193</v>
+        <v>19779</v>
       </c>
       <c r="L37" t="n">
         <v>1</v>
@@ -1943,28 +1943,28 @@
         <v>0.047</v>
       </c>
       <c r="D38" t="n">
-        <v>0.191</v>
+        <v>0.189</v>
       </c>
       <c r="E38" t="n">
-        <v>0.367</v>
+        <v>0.365</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>9808</v>
+        <v>8424</v>
       </c>
       <c r="I38" t="n">
-        <v>9808</v>
+        <v>8424</v>
       </c>
       <c r="J38" t="n">
-        <v>9653</v>
+        <v>8340</v>
       </c>
       <c r="K38" t="n">
-        <v>17790</v>
+        <v>16933</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
@@ -1977,16 +1977,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="C39" t="n">
         <v>0.015</v>
       </c>
       <c r="D39" t="n">
-        <v>0.318</v>
+        <v>0.319</v>
       </c>
       <c r="E39" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -1995,16 +1995,16 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>9536</v>
+        <v>8682</v>
       </c>
       <c r="I39" t="n">
-        <v>9536</v>
+        <v>8682</v>
       </c>
       <c r="J39" t="n">
-        <v>9548</v>
+        <v>8681</v>
       </c>
       <c r="K39" t="n">
-        <v>18801</v>
+        <v>17150</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.292</v>
+        <v>0.293</v>
       </c>
       <c r="C40" t="n">
         <v>0.005</v>
       </c>
       <c r="D40" t="n">
-        <v>0.283</v>
+        <v>0.284</v>
       </c>
       <c r="E40" t="n">
-        <v>0.302</v>
+        <v>0.303</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2035,16 +2035,16 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>9713</v>
+        <v>9400</v>
       </c>
       <c r="I40" t="n">
-        <v>9713</v>
+        <v>9400</v>
       </c>
       <c r="J40" t="n">
-        <v>9715</v>
+        <v>9399</v>
       </c>
       <c r="K40" t="n">
-        <v>20422</v>
+        <v>19582</v>
       </c>
       <c r="L40" t="n">
         <v>1</v>
@@ -2057,16 +2057,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.255</v>
+        <v>0.256</v>
       </c>
       <c r="C41" t="n">
         <v>0.002</v>
       </c>
       <c r="D41" t="n">
-        <v>0.251</v>
+        <v>0.252</v>
       </c>
       <c r="E41" t="n">
-        <v>0.258</v>
+        <v>0.26</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2075,16 +2075,16 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>10761</v>
+        <v>8722</v>
       </c>
       <c r="I41" t="n">
-        <v>10761</v>
+        <v>8722</v>
       </c>
       <c r="J41" t="n">
-        <v>10763</v>
+        <v>8721</v>
       </c>
       <c r="K41" t="n">
-        <v>22709</v>
+        <v>18930</v>
       </c>
       <c r="L41" t="n">
         <v>1</v>
@@ -2097,16 +2097,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.252</v>
+        <v>0.253</v>
       </c>
       <c r="C42" t="n">
         <v>0.002</v>
       </c>
       <c r="D42" t="n">
-        <v>0.249</v>
+        <v>0.25</v>
       </c>
       <c r="E42" t="n">
-        <v>0.255</v>
+        <v>0.256</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -2115,16 +2115,16 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>10586</v>
+        <v>8628</v>
       </c>
       <c r="I42" t="n">
-        <v>10586</v>
+        <v>8628</v>
       </c>
       <c r="J42" t="n">
-        <v>10589</v>
+        <v>8626</v>
       </c>
       <c r="K42" t="n">
-        <v>22250</v>
+        <v>18965</v>
       </c>
       <c r="L42" t="n">
         <v>1</v>
@@ -2137,16 +2137,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.256</v>
+        <v>0.257</v>
       </c>
       <c r="C43" t="n">
         <v>0.002</v>
       </c>
       <c r="D43" t="n">
-        <v>0.253</v>
+        <v>0.254</v>
       </c>
       <c r="E43" t="n">
-        <v>0.259</v>
+        <v>0.26</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -2155,16 +2155,16 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>10529</v>
+        <v>8697</v>
       </c>
       <c r="I43" t="n">
-        <v>10529</v>
+        <v>8697</v>
       </c>
       <c r="J43" t="n">
-        <v>10533</v>
+        <v>8696</v>
       </c>
       <c r="K43" t="n">
-        <v>21429</v>
+        <v>18034</v>
       </c>
       <c r="L43" t="n">
         <v>1</v>
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.24</v>
+        <v>0.241</v>
       </c>
       <c r="C44" t="n">
         <v>0.002</v>
       </c>
       <c r="D44" t="n">
-        <v>0.237</v>
+        <v>0.238</v>
       </c>
       <c r="E44" t="n">
-        <v>0.243</v>
+        <v>0.244</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2195,16 +2195,16 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>10683</v>
+        <v>8111</v>
       </c>
       <c r="I44" t="n">
-        <v>10683</v>
+        <v>8111</v>
       </c>
       <c r="J44" t="n">
-        <v>10684</v>
+        <v>8111</v>
       </c>
       <c r="K44" t="n">
-        <v>22576</v>
+        <v>17889</v>
       </c>
       <c r="L44" t="n">
         <v>1</v>
@@ -2226,7 +2226,7 @@
         <v>0.257</v>
       </c>
       <c r="E45" t="n">
-        <v>0.41</v>
+        <v>0.409</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -2235,16 +2235,16 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>10249</v>
+        <v>7346</v>
       </c>
       <c r="I45" t="n">
-        <v>10249</v>
+        <v>7346</v>
       </c>
       <c r="J45" t="n">
-        <v>10236</v>
+        <v>7343</v>
       </c>
       <c r="K45" t="n">
-        <v>16570</v>
+        <v>11886</v>
       </c>
       <c r="L45" t="n">
         <v>1</v>
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.318</v>
+        <v>0.319</v>
       </c>
       <c r="C46" t="n">
         <v>0.012</v>
       </c>
       <c r="D46" t="n">
-        <v>0.296</v>
+        <v>0.297</v>
       </c>
       <c r="E46" t="n">
         <v>0.34</v>
@@ -2275,16 +2275,16 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>10528</v>
+        <v>9554</v>
       </c>
       <c r="I46" t="n">
-        <v>10528</v>
+        <v>9554</v>
       </c>
       <c r="J46" t="n">
-        <v>10543</v>
+        <v>9572</v>
       </c>
       <c r="K46" t="n">
-        <v>20199</v>
+        <v>17559</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
@@ -2297,16 +2297,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.273</v>
+        <v>0.274</v>
       </c>
       <c r="C47" t="n">
         <v>0.004</v>
       </c>
       <c r="D47" t="n">
-        <v>0.266</v>
+        <v>0.267</v>
       </c>
       <c r="E47" t="n">
-        <v>0.28</v>
+        <v>0.281</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -2315,16 +2315,16 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>10483</v>
+        <v>9165</v>
       </c>
       <c r="I47" t="n">
-        <v>10483</v>
+        <v>9165</v>
       </c>
       <c r="J47" t="n">
-        <v>10483</v>
+        <v>9165</v>
       </c>
       <c r="K47" t="n">
-        <v>22679</v>
+        <v>20910</v>
       </c>
       <c r="L47" t="n">
         <v>1</v>
@@ -2337,16 +2337,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.25</v>
+        <v>0.252</v>
       </c>
       <c r="C48" t="n">
         <v>0.002</v>
       </c>
       <c r="D48" t="n">
-        <v>0.247</v>
+        <v>0.248</v>
       </c>
       <c r="E48" t="n">
-        <v>0.253</v>
+        <v>0.255</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -2355,16 +2355,16 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>10496</v>
+        <v>8693</v>
       </c>
       <c r="I48" t="n">
-        <v>10496</v>
+        <v>8693</v>
       </c>
       <c r="J48" t="n">
-        <v>10496</v>
+        <v>8694</v>
       </c>
       <c r="K48" t="n">
-        <v>22228</v>
+        <v>19020</v>
       </c>
       <c r="L48" t="n">
         <v>1</v>
@@ -2377,16 +2377,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.257</v>
+        <v>0.259</v>
       </c>
       <c r="C49" t="n">
         <v>0.002</v>
       </c>
       <c r="D49" t="n">
-        <v>0.254</v>
+        <v>0.255</v>
       </c>
       <c r="E49" t="n">
-        <v>0.26</v>
+        <v>0.262</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2395,16 +2395,16 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>10534</v>
+        <v>8478</v>
       </c>
       <c r="I49" t="n">
-        <v>10534</v>
+        <v>8478</v>
       </c>
       <c r="J49" t="n">
-        <v>10535</v>
+        <v>8478</v>
       </c>
       <c r="K49" t="n">
-        <v>21989</v>
+        <v>18406</v>
       </c>
       <c r="L49" t="n">
         <v>1</v>
@@ -2417,16 +2417,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.24</v>
+        <v>0.241</v>
       </c>
       <c r="C50" t="n">
         <v>0.002</v>
       </c>
       <c r="D50" t="n">
-        <v>0.237</v>
+        <v>0.238</v>
       </c>
       <c r="E50" t="n">
-        <v>0.243</v>
+        <v>0.244</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2435,16 +2435,16 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>10592</v>
+        <v>8733</v>
       </c>
       <c r="I50" t="n">
-        <v>10592</v>
+        <v>8733</v>
       </c>
       <c r="J50" t="n">
-        <v>10592</v>
+        <v>8733</v>
       </c>
       <c r="K50" t="n">
-        <v>22700</v>
+        <v>18599</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
@@ -2457,16 +2457,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.241</v>
+        <v>0.242</v>
       </c>
       <c r="C51" t="n">
         <v>0.002</v>
       </c>
       <c r="D51" t="n">
-        <v>0.238</v>
+        <v>0.239</v>
       </c>
       <c r="E51" t="n">
-        <v>0.244</v>
+        <v>0.245</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>10602</v>
+        <v>8453</v>
       </c>
       <c r="I51" t="n">
-        <v>10602</v>
+        <v>8453</v>
       </c>
       <c r="J51" t="n">
-        <v>10603</v>
+        <v>8454</v>
       </c>
       <c r="K51" t="n">
-        <v>21623</v>
+        <v>18764</v>
       </c>
       <c r="L51" t="n">
         <v>1</v>
@@ -2500,13 +2500,13 @@
         <v>0.338</v>
       </c>
       <c r="C52" t="n">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="D52" t="n">
-        <v>0.281</v>
+        <v>0.28</v>
       </c>
       <c r="E52" t="n">
-        <v>0.394</v>
+        <v>0.395</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2515,16 +2515,16 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>10165</v>
+        <v>8551</v>
       </c>
       <c r="I52" t="n">
-        <v>10165</v>
+        <v>8551</v>
       </c>
       <c r="J52" t="n">
-        <v>10174</v>
+        <v>8597</v>
       </c>
       <c r="K52" t="n">
-        <v>17095</v>
+        <v>14274</v>
       </c>
       <c r="L52" t="n">
         <v>1</v>
@@ -2537,16 +2537,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.317</v>
+        <v>0.318</v>
       </c>
       <c r="C53" t="n">
         <v>0.008999999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.301</v>
+        <v>0.302</v>
       </c>
       <c r="E53" t="n">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2555,16 +2555,16 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>10165</v>
+        <v>8717</v>
       </c>
       <c r="I53" t="n">
-        <v>10164</v>
+        <v>8717</v>
       </c>
       <c r="J53" t="n">
-        <v>10166</v>
+        <v>8721</v>
       </c>
       <c r="K53" t="n">
-        <v>21844</v>
+        <v>18518</v>
       </c>
       <c r="L53" t="n">
         <v>1</v>
@@ -2577,16 +2577,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.275</v>
+        <v>0.276</v>
       </c>
       <c r="C54" t="n">
         <v>0.003</v>
       </c>
       <c r="D54" t="n">
-        <v>0.27</v>
+        <v>0.271</v>
       </c>
       <c r="E54" t="n">
-        <v>0.28</v>
+        <v>0.281</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2595,16 +2595,16 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>10209</v>
+        <v>8508</v>
       </c>
       <c r="I54" t="n">
-        <v>10206</v>
+        <v>8508</v>
       </c>
       <c r="J54" t="n">
-        <v>10212</v>
+        <v>8506</v>
       </c>
       <c r="K54" t="n">
-        <v>21722</v>
+        <v>19618</v>
       </c>
       <c r="L54" t="n">
         <v>1</v>
@@ -2617,16 +2617,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.256</v>
+        <v>0.257</v>
       </c>
       <c r="C55" t="n">
         <v>0.002</v>
       </c>
       <c r="D55" t="n">
-        <v>0.252</v>
+        <v>0.254</v>
       </c>
       <c r="E55" t="n">
-        <v>0.259</v>
+        <v>0.26</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2635,16 +2635,16 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>10312</v>
+        <v>8768</v>
       </c>
       <c r="I55" t="n">
-        <v>10312</v>
+        <v>8768</v>
       </c>
       <c r="J55" t="n">
-        <v>10313</v>
+        <v>8769</v>
       </c>
       <c r="K55" t="n">
-        <v>21555</v>
+        <v>19100</v>
       </c>
       <c r="L55" t="n">
         <v>1</v>
@@ -2657,16 +2657,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.248</v>
+        <v>0.25</v>
       </c>
       <c r="C56" t="n">
         <v>0.002</v>
       </c>
       <c r="D56" t="n">
-        <v>0.245</v>
+        <v>0.247</v>
       </c>
       <c r="E56" t="n">
-        <v>0.251</v>
+        <v>0.253</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -2675,16 +2675,16 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>10553</v>
+        <v>8692</v>
       </c>
       <c r="I56" t="n">
-        <v>10553</v>
+        <v>8692</v>
       </c>
       <c r="J56" t="n">
-        <v>10555</v>
+        <v>8693</v>
       </c>
       <c r="K56" t="n">
-        <v>22435</v>
+        <v>18355</v>
       </c>
       <c r="L56" t="n">
         <v>1</v>
@@ -2697,16 +2697,16 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.242</v>
+        <v>0.243</v>
       </c>
       <c r="C57" t="n">
         <v>0.002</v>
       </c>
       <c r="D57" t="n">
-        <v>0.239</v>
+        <v>0.24</v>
       </c>
       <c r="E57" t="n">
-        <v>0.245</v>
+        <v>0.246</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>10622</v>
+        <v>8893</v>
       </c>
       <c r="I57" t="n">
-        <v>10622</v>
+        <v>8893</v>
       </c>
       <c r="J57" t="n">
-        <v>10624</v>
+        <v>8893</v>
       </c>
       <c r="K57" t="n">
-        <v>23268</v>
+        <v>19357</v>
       </c>
       <c r="L57" t="n">
         <v>1</v>
@@ -2737,16 +2737,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.249</v>
+        <v>0.251</v>
       </c>
       <c r="C58" t="n">
         <v>0.002</v>
       </c>
       <c r="D58" t="n">
-        <v>0.246</v>
+        <v>0.248</v>
       </c>
       <c r="E58" t="n">
-        <v>0.253</v>
+        <v>0.254</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2755,16 +2755,16 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>10908</v>
+        <v>8573</v>
       </c>
       <c r="I58" t="n">
-        <v>10908</v>
+        <v>8573</v>
       </c>
       <c r="J58" t="n">
-        <v>10908</v>
+        <v>8576</v>
       </c>
       <c r="K58" t="n">
-        <v>22838</v>
+        <v>18188</v>
       </c>
       <c r="L58" t="n">
         <v>1</v>
@@ -2777,16 +2777,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>15.23</v>
+        <v>15.22</v>
       </c>
       <c r="C59" t="n">
         <v>0.103</v>
       </c>
       <c r="D59" t="n">
-        <v>15.034</v>
+        <v>15.025</v>
       </c>
       <c r="E59" t="n">
-        <v>15.423</v>
+        <v>15.411</v>
       </c>
       <c r="F59" t="n">
         <v>0.001</v>
@@ -2795,16 +2795,16 @@
         <v>0.001</v>
       </c>
       <c r="H59" t="n">
-        <v>9595</v>
+        <v>8618</v>
       </c>
       <c r="I59" t="n">
-        <v>9595</v>
+        <v>8618</v>
       </c>
       <c r="J59" t="n">
-        <v>9607</v>
+        <v>8630</v>
       </c>
       <c r="K59" t="n">
-        <v>19020</v>
+        <v>17150</v>
       </c>
       <c r="L59" t="n">
         <v>1</v>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.747</v>
+        <v>0.748</v>
       </c>
       <c r="C60" t="n">
         <v>0.005</v>
@@ -2835,16 +2835,16 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>9555</v>
+        <v>8589</v>
       </c>
       <c r="I60" t="n">
-        <v>9553</v>
+        <v>8585</v>
       </c>
       <c r="J60" t="n">
-        <v>9577</v>
+        <v>8616</v>
       </c>
       <c r="K60" t="n">
-        <v>18153</v>
+        <v>16321</v>
       </c>
       <c r="L60" t="n">
         <v>1</v>
@@ -2857,16 +2857,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.425</v>
+        <v>0.424</v>
       </c>
       <c r="C61" t="n">
         <v>0.001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.424</v>
+        <v>0.422</v>
       </c>
       <c r="E61" t="n">
-        <v>0.427</v>
+        <v>0.425</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2875,18 +2875,58 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>10625</v>
+        <v>8458</v>
       </c>
       <c r="I61" t="n">
-        <v>10624</v>
+        <v>8457</v>
       </c>
       <c r="J61" t="n">
-        <v>10627</v>
+        <v>8461</v>
       </c>
       <c r="K61" t="n">
-        <v>22793</v>
+        <v>18303</v>
       </c>
       <c r="L61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>K_S</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>7297</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7297</v>
+      </c>
+      <c r="J62" t="n">
+        <v>5338</v>
+      </c>
+      <c r="K62" t="n">
+        <v>6142</v>
+      </c>
+      <c r="L62" t="n">
         <v>1</v>
       </c>
     </row>
